--- a/test/sheet1.xlsx
+++ b/test/sheet1.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Discrete mathematics\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F4E6F42-851C-4171-BCCF-C547996D9EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABF60E7-A4C6-429C-8EF1-30CDEFBA3543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{84947495-1A57-4BD3-9CF6-A8AB31CEBBB6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{84947495-1A57-4BD3-9CF6-A8AB31CEBBB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="140">
   <si>
     <t>灾害名称</t>
   </si>
@@ -419,6 +421,2108 @@
         <charset val="134"/>
       </rPr>
       <t>（索科特拉岛）</t>
+    </r>
+  </si>
+  <si>
+    <t>场景</t>
+  </si>
+  <si>
+    <r>
+      <t>节点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ID</t>
+    </r>
+  </si>
+  <si>
+    <t>节点类型</t>
+  </si>
+  <si>
+    <t>specific_hazard_id</t>
+  </si>
+  <si>
+    <t>证据引用编号</t>
+  </si>
+  <si>
+    <t>证据原文</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <r>
+      <t>C7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Marib </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>省难民营</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 89% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为茅草屋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>破旧帐篷，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">IDP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>营地位于山谷易洪区</t>
+    </r>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <r>
+      <t>C1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C2</t>
+    </r>
+  </si>
+  <si>
+    <t>长期冲突致也门基础设施（道路、排水）损毁，难民营救援通道受阻</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>Hazard</t>
+  </si>
+  <si>
+    <t>MH0006</t>
+  </si>
+  <si>
+    <r>
+      <t>C4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>暴雨引发短时强降雨，形成山洪（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Flash Flood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），冲毁难民营帐篷</t>
+    </r>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <r>
+      <t>C7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万难民营居民受洪水威胁，部分人因房屋屋顶坠落重伤，拉卡难民营被毁</t>
+    </r>
+  </si>
+  <si>
+    <t>N5</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <r>
+      <t>C2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>也门红新月会（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>YRCS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>N6</t>
+  </si>
+  <si>
+    <t>Behaviour</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">YRCS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计划在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Marib </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>省分发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1500 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>套</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NFI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、食品包及塑料布，援助受灾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> IDP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家庭</t>
+    </r>
+  </si>
+  <si>
+    <t>N7</t>
+  </si>
+  <si>
+    <r>
+      <t>C6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2023 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月起也门持续暴雨，气象预警滞后，雨季提前且强度增加</t>
+    </r>
+  </si>
+  <si>
+    <t>N8</t>
+  </si>
+  <si>
+    <t>MH0012</t>
+  </si>
+  <si>
+    <r>
+      <t>C6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>暴雨引发地表洪水（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Surface Water Flooding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），淹没街道、冲毁车辆</t>
+    </r>
+  </si>
+  <si>
+    <t>N9</t>
+  </si>
+  <si>
+    <r>
+      <t>C6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人死亡、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人失踪、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人受伤，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">24 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辆汽车被冲走，经济损失超</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿也门里亚尔</t>
+    </r>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <r>
+      <t>也门塔伊兹省政府、世界粮食计划署（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WFP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>N11</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <r>
+      <t>塔伊兹省政府发布暴雨灾情通报，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">WFP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预警后续强降雨风险</t>
+    </r>
+  </si>
+  <si>
+    <t>荷台达市洪灾</t>
+  </si>
+  <si>
+    <t>N12</t>
+  </si>
+  <si>
+    <t>MH0010</t>
+  </si>
+  <si>
+    <r>
+      <t>C2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>暴雨致积水无法排出（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ponding Flood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），淹没房屋及农业用地</t>
+    </r>
+  </si>
+  <si>
+    <t>N13</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人死亡、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人失踪，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">500 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户家庭流离失所，基础设施（道路、桥梁）损毁</t>
+    </r>
+  </si>
+  <si>
+    <t>N14</t>
+  </si>
+  <si>
+    <r>
+      <t>C2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>胡塞武装（控制荷台达）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DG ECHO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合作伙伴</t>
+    </r>
+  </si>
+  <si>
+    <t>N15</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DG ECHO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合作伙伴提供紧急避难所、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NFI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分发及应急现金援助</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>热带气旋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泰杰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洪灾</t>
+    </r>
+  </si>
+  <si>
+    <t>N16</t>
+  </si>
+  <si>
+    <t>MH0057</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <r>
+      <t>热带气旋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泰杰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引发暴雨及风暴潮，形成洪水（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tropical Cyclone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关联洪灾）</t>
+    </r>
+  </si>
+  <si>
+    <t>N17</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人死亡、上千家庭流离失所，索科特拉岛道路及基础设施严重受损</t>
+    </r>
+  </si>
+  <si>
+    <t>N18</t>
+  </si>
+  <si>
+    <r>
+      <t>也门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Al-Mahra </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>省政府、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">UN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人道主义机构</t>
+    </r>
+  </si>
+  <si>
+    <t>N19</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Al-Mahra </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>省政府宣布南部进入紧急状态，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">UN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>协调救援力量（因道路损毁受阻）</t>
+    </r>
+  </si>
+  <si>
+    <t>edge_id</t>
+  </si>
+  <si>
+    <t>from_id</t>
+  </si>
+  <si>
+    <t>to_id</t>
+  </si>
+  <si>
+    <t>边类型</t>
+  </si>
+  <si>
+    <t>边关系</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>CHIB</t>
+  </si>
+  <si>
+    <t>Amplifies</t>
+  </si>
+  <si>
+    <r>
+      <t>茅草</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>帐篷结构（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）加剧山洪（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）对难民营的破坏，增加人员受威胁风险</t>
+    </r>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <r>
+      <t>基础设施损毁（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）阻碍洪水排泄，放大山洪（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）影响范围</t>
+    </r>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <r>
+      <t>山洪（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）直接导致难民营被毁、居民受伤（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>实施</t>
+  </si>
+  <si>
+    <r>
+      <t>YRCS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）实施</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NFI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>及食品包</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行动（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>IFRC</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>Coordinates_with</t>
+  </si>
+  <si>
+    <r>
+      <t>YRCS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> IFRC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>协调，获取救援物资支持</t>
+    </r>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <r>
+      <t>持续暴雨（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）触发地表洪水（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <r>
+      <t>地表洪水（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）直接导致人员伤亡及财产损失（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <r>
+      <t>塔伊兹省政府（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）实施</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发布灾情通报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行动（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>WFP</t>
+  </si>
+  <si>
+    <t>Informs</t>
+  </si>
+  <si>
+    <r>
+      <t>塔伊兹省政府（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> WFP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通报灾情，联合发布降雨预警</t>
+    </r>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <r>
+      <t>积水洪水（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）导致人员死亡及家庭流离失所（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DG ECHO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合作伙伴（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）实施</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>紧急避难所援助</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行动（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <r>
+      <t>热带气旋引发洪水（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）导致人员死亡及流离失所（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Al-Mahra </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>省政府（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）实施</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宣布紧急状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行动（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>Requests</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Al-Mahra </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>省政府（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> UN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）派遣救援力量，因道路损毁未抵达</t>
     </r>
   </si>
 </sst>
@@ -530,7 +2634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,6 +2651,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -865,7 +2972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF48BA34-78FE-4B27-8C3A-DAE9AC2EEF33}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -880,7 +2987,7 @@
     <col min="7" max="7" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,7 +3010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="84.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -926,7 +3033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="70.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -949,7 +3056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="70.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -972,7 +3079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="70.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -993,6 +3100,846 @@
       </c>
       <c r="G5" s="5" t="s">
         <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7F1D27-FD57-45BD-802A-5A609591FEED}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.9140625" customWidth="1"/>
+    <col min="2" max="2" width="59.1640625" customWidth="1"/>
+    <col min="3" max="3" width="37.75" customWidth="1"/>
+    <col min="4" max="4" width="47.75" customWidth="1"/>
+    <col min="5" max="5" width="36.4140625" customWidth="1"/>
+    <col min="6" max="6" width="54.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="112.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="112.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="112.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="126.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="56.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="140.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="112.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="112.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="126.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="70.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="98.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="126.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="126.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="84.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="112.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="126.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="112.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="70.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="126.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B10264C-8C4C-4762-89B8-43FDD12D3422}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="56.58203125" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.08203125" customWidth="1"/>
+    <col min="5" max="5" width="14.58203125" customWidth="1"/>
+    <col min="6" max="6" width="34.75" customWidth="1"/>
+    <col min="7" max="7" width="17.9140625" customWidth="1"/>
+    <col min="8" max="8" width="66.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="126.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="112.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="84.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="84.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="84.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="56.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="84.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="98.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="112.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="98.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="126.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="98.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="98.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="126.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
